--- a/meta/16-b-1.xlsx
+++ b/meta/16-b-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ЦУР\ЦУР 2020\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="16.b.1.1" sheetId="1" r:id="rId1"/>
@@ -105,24 +105,9 @@
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
   <si>
-    <t>Национальный статистический комитет КР (Отдел статистики домашних хозяйств)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Калымбетова Ы.И. </t>
   </si>
   <si>
-    <t xml:space="preserve">y.kalymbetova@gmail.com </t>
-  </si>
-  <si>
-    <t>0(312) 664164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.stat.kg </t>
-  </si>
-  <si>
-    <t>16.b.1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.b Поощрять и проводить в жизнь недискриминационные законы и политику в интересах устойчивого развития </t>
   </si>
   <si>
@@ -138,23 +123,36 @@
     <t>Кластерное обследование по многим показателям Кыргызстан, 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">В опросах КОМП используется персональное интервью с использованием компьютеров (Computer-Assisted Personal Interview, CAPI). Приложение для сбора данных, в том числе специальная платформа управления данными КОМП, основано на программном обеспечении CSPro (Census and Survey Processing System) версии 6.3.                                                                  Процедуры и стандартные программы, разработанные в рамках глобальной программы КОМП, были адаптированы к окончательной версии вопросника КОМП Кыргызстан, 2018 года и использовались в опросе. 
-Данные собирались с использованием планшетных компьютеров под управлением операционной системы Windows 8 с использованием приложения Bluetooth для операций на местах, что позволяло передавать задания и заполненные вопросники с/на планшеты руководителя и интервьюера.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Руководители команд отвечали за ежедневный мониторинг работ на местах. В одном домохозяйстве из кластера проводился обязательный повторный опрос. Проводились ежедневные наблюдения за навыками и результатами интервьюера. В ходе работ на местах каждую команду несколько раз посещали руководители обследования, а также организовывались визиты на места членов команды КОМП ЮНИСЕФ.
-В ходе полевых работ каждую неделю создавались проверочные таблицы для анализа и работы с командами на местах, которые представляли собой адаптированные версии стандартных таблиц, созданных Программой КОМП.
-</t>
-  </si>
-  <si>
     <t>1) База данных КОМП Кыргызстан, 2018 разрешено на сайте глобального MICS и НСК;                                                                                                      2) Публикация по итогам КОМП Кыргызстан, 2018/MICS разрешена на сайте НСК и UNISEF.</t>
   </si>
   <si>
     <t>Показатель дезагрегирован по доходу, возрастной группе, географическому положению, местности, образованию, и по статусу инвалидности).</t>
   </si>
   <si>
-    <t xml:space="preserve">16.b.1 Доля женщин в возрасте 15-49 лет, сообщившего о личной дискриминации или преследованиях в последние 12 месяцев на основании, дискриминация на котором запрещена международным правом в области прав человека </t>
+    <t>16.b.1</t>
+  </si>
+  <si>
+    <t>Руководители команд отвечали за ежедневный мониторинг работ на местах. В одном домохозяйстве из кластера проводился обязательный повторный опрос. Проводились ежедневные наблюдения за навыками и результатами интервьюера. В ходе работ на местах каждую команду несколько раз посещали руководители обследования, а также организовывались визиты на места членов команды КОМП ЮНИСЕФ.
+В ходе полевых работ каждую неделю создавались проверочные таблицы для анализа и работы с командами на местах, которые представляли собой адаптированные версии стандартных таблиц, созданных Программой КОМП.</t>
+  </si>
+  <si>
+    <t>В опросах КОМП используется персональное интервью с использованием компьютеров (Computer-Assisted Personal Interview, CAPI). Приложение для сбора данных, в том числе специальная платформа управления данными КОМП, основано на программном обеспечении CSPro (Census and Survey Processing System) версии 6.3.                                                                  Процедуры и стандартные программы, разработанные в рамках глобальной программы КОМП, были адаптированы к окончательной версии вопросника КОМП Кыргызстан, 2018 года и использовались в опросе. 
+Данные собирались с использованием планшетных компьютеров под управлением операционной системы Windows 8 с использованием приложения Bluetooth для операций на местах, что позволяло передавать задания и заполненные вопросники с/на планшеты руководителя и интервьюера.</t>
+  </si>
+  <si>
+    <t>16.b.1 Доля лиц, сообщивших о том, что в последние 12 месяцев они лично подвергались дискриминации или преследованиям на основаниях, дискриминация по которым запрещена в соответствии с международными стандартами в области прав человека</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление статистики домашних хозяйств)</t>
+  </si>
+  <si>
+    <t>0(312) 32 46 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gov.kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -560,7 +558,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -575,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -591,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -599,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -613,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -621,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -629,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -637,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -645,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -654,28 +652,28 @@
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -689,15 +687,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -718,12 +716,12 @@
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,12 +730,12 @@
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -745,7 +743,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1747,7 +1745,7 @@
     <hyperlink ref="B8" r:id="rId2"/>
     <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId4"/>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>